--- a/library/library_0674.xlsx
+++ b/library/library_0674.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D9DE0F-847E-D94A-9F5A-EBAA48C0F42A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8951B02-E2DD-0F4D-9AB4-4D57236DF69A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18260" yWindow="460" windowWidth="16380" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -498,12 +498,13 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B18 E2:E18"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
